--- a/src/test/resources/excel/OrangeHRM_Data.xlsx
+++ b/src/test/resources/excel/OrangeHRM_Data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Kashyap\eclipse-workspace\OrangeHRM_POM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB7A6A-A071-47E8-AC18-00BE0042A09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5541719-B181-4D90-A493-AF7E374519BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D566005C-A420-401C-8F48-3CAE538A2366}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{D566005C-A420-401C-8F48-3CAE538A2366}"/>
   </bookViews>
   <sheets>
     <sheet name="verifyValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="verifyInvalidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="verifyAddEmployee" sheetId="3" r:id="rId3"/>
-    <sheet name="verifyAdminPageNavigation" sheetId="4" r:id="rId4"/>
-    <sheet name="verifySearchSystemUser" sheetId="5" r:id="rId5"/>
+    <sheet name="verifyDirectoryTest" sheetId="6" r:id="rId3"/>
+    <sheet name="verifyDirectoryUser" sheetId="7" r:id="rId4"/>
+    <sheet name="verifyAddEmployee" sheetId="3" r:id="rId5"/>
+    <sheet name="verifyAdminPageNavigation" sheetId="4" r:id="rId6"/>
+    <sheet name="verifySearchSystemUser" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -113,12 +115,45 @@
   </si>
   <si>
     <t xml:space="preserve">User is not found in search results </t>
+  </si>
+  <si>
+    <t>uDirect</t>
+  </si>
+  <si>
+    <t>uDirectPass</t>
+  </si>
+  <si>
+    <t>directErrMsg</t>
+  </si>
+  <si>
+    <t>Directory page failed to load</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>dName</t>
+  </si>
+  <si>
+    <t>dErr</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>User not displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,8 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1571BB6-37FD-4348-8B75-3D17DB4A30E7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -548,6 +584,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B46BB-957F-4C55-83CC-3EAC107A5CB1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94A3BD-2C1A-40B0-893B-17F6A2824361}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA5E0A6-B5D1-4DC1-8FF7-1936500F9D5A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -601,7 +727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE62903-A94B-48FB-B440-C3A1C7F9A3FA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -638,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D844DC69-B208-4D5A-A9E5-909E18281FC9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
